--- a/Deployment/TeamsQuestionBank.xlsx
+++ b/Deployment/TeamsQuestionBank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swarora\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swarora\Desktop\Deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5677D986-F56D-4776-9EB8-C154D99564FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757A6A4D-F9D8-4EDA-A3C6-3FEBF1A0114D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0033BA41-4B9D-490C-9F50-957A435A7F98}"/>
   </bookViews>
@@ -57,27 +57,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="256">
   <si>
-    <t>S. No.</t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
-    <t>Option 1</t>
-  </si>
-  <si>
-    <t>Option 2</t>
-  </si>
-  <si>
-    <t>Option 3</t>
-  </si>
-  <si>
-    <t>Option 4</t>
-  </si>
-  <si>
-    <t>Correct Answer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alt  F </t>
   </si>
   <si>
@@ -823,6 +805,24 @@
   </si>
   <si>
     <t>Search for the file on your OneDrive for Business</t>
+  </si>
+  <si>
+    <t>Option1</t>
+  </si>
+  <si>
+    <t>Option2</t>
+  </si>
+  <si>
+    <t>Option3</t>
+  </si>
+  <si>
+    <t>Option4</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>S.No</t>
   </si>
 </sst>
 </file>
@@ -998,16 +998,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE074867-A302-45CB-A2F3-6F109B7527C5}" name="Table1" displayName="Table1" ref="A2:G87" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A2:G87" xr:uid="{41955F9D-CA80-48C2-B8E5-364BCE8B0788}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE074867-A302-45CB-A2F3-6F109B7527C5}" name="Table1" displayName="Table1" ref="A1:G78" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:G78" xr:uid="{41955F9D-CA80-48C2-B8E5-364BCE8B0788}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3C9A1044-704C-47FF-8C54-B922818E1B47}" name="S. No."/>
+    <tableColumn id="1" xr3:uid="{3C9A1044-704C-47FF-8C54-B922818E1B47}" name="S.No"/>
     <tableColumn id="2" xr3:uid="{A9D40C83-9864-4C7F-B838-6567C86F05DF}" name="Question"/>
-    <tableColumn id="3" xr3:uid="{EEE6ACE9-DB51-478B-8D6C-3EC6FC3D7046}" name="Option 1" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{54AFF299-ED2C-4787-9557-42848FC4209E}" name="Option 2" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{8272FCA4-F8CA-4986-B82E-895C105E009A}" name="Option 3" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{FB4AD64F-0F42-419F-BA1B-48DF83168273}" name="Option 4" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{D9DA5306-5F70-4EDE-9B40-D2620C6B3962}" name="Correct Answer" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{EEE6ACE9-DB51-478B-8D6C-3EC6FC3D7046}" name="Option1" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{54AFF299-ED2C-4787-9557-42848FC4209E}" name="Option2" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{8272FCA4-F8CA-4986-B82E-895C105E009A}" name="Option3" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{FB4AD64F-0F42-419F-BA1B-48DF83168273}" name="Option4" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{D9DA5306-5F70-4EDE-9B40-D2620C6B3962}" name="Answer" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1324,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639A57E8-A9E1-4EFE-90A6-B4D4B08A4FE8}">
-  <dimension ref="A2:G87"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,142 +1341,165 @@
     <col min="7" max="7" width="57.7109375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>6</v>
+      <c r="G2" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>162</v>
+      <c r="C5" s="9">
+        <v>200</v>
+      </c>
+      <c r="D5" s="9">
+        <v>250</v>
+      </c>
+      <c r="E5" s="9">
+        <v>300</v>
+      </c>
+      <c r="F5" s="9">
+        <v>500</v>
+      </c>
+      <c r="G5" s="9">
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="9">
-        <v>200</v>
-      </c>
-      <c r="D6" s="9">
-        <v>250</v>
-      </c>
-      <c r="E6" s="9">
-        <v>300</v>
-      </c>
-      <c r="F6" s="9">
-        <v>500</v>
-      </c>
-      <c r="G6" s="9">
-        <v>300</v>
+        <v>162</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>170</v>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1484,22 +1507,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="G8" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1507,22 +1530,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="G9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1530,22 +1553,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="G10" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1553,22 +1576,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1576,22 +1599,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1599,22 +1622,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="C13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1622,18 +1641,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="b">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="C14" s="11">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="11">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="10">
+        <v>250</v>
+      </c>
+      <c r="F14" s="10">
+        <v>10</v>
+      </c>
+      <c r="G14" s="10">
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1641,41 +1664,41 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="11">
-        <v>10000</v>
-      </c>
-      <c r="D15" s="11">
-        <v>20000</v>
-      </c>
-      <c r="E15" s="10">
-        <v>250</v>
-      </c>
-      <c r="F15" s="10">
-        <v>10</v>
-      </c>
-      <c r="G15" s="10">
-        <v>250</v>
+        <v>168</v>
+      </c>
+      <c r="C15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="b">
-        <v>0</v>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1683,22 +1706,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G17" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1706,22 +1729,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="F18" s="8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1729,22 +1752,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G19" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1752,22 +1775,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="F20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1775,22 +1798,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="F21" s="8" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1798,45 +1821,39 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G22" s="8" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>67</v>
+      <c r="G23" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1844,16 +1861,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1861,16 +1878,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C25" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>73</v>
+      <c r="F25" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1878,22 +1901,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1901,22 +1924,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1924,16 +1941,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1941,45 +1964,43 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="F29" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="E30" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>38</v>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1987,20 +2008,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="C31" s="13">
+        <v>250</v>
+      </c>
+      <c r="D31" s="13">
+        <v>300</v>
+      </c>
+      <c r="E31" s="13">
+        <v>100</v>
+      </c>
+      <c r="F31" s="13">
+        <v>20000</v>
+      </c>
+      <c r="G31" s="13">
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2008,22 +2031,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="13">
-        <v>250</v>
-      </c>
-      <c r="D32" s="13">
-        <v>300</v>
-      </c>
-      <c r="E32" s="13">
-        <v>100</v>
-      </c>
-      <c r="F32" s="13">
-        <v>20000</v>
-      </c>
-      <c r="G32" s="13">
-        <v>300</v>
+        <v>88</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2031,20 +2052,20 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="E33" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>97</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2052,20 +2073,18 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>101</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C34" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="13"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="13" t="s">
-        <v>102</v>
+      <c r="G34" s="13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2073,18 +2092,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13" t="b">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2092,45 +2115,45 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="E36" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="F36" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="G36" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>113</v>
+      <c r="B37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D37" s="10">
+        <v>11000</v>
+      </c>
+      <c r="E37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="F37" s="10">
+        <v>20000</v>
+      </c>
+      <c r="G37" s="10">
+        <v>20000</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2138,290 +2161,284 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C38" s="10">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="D38" s="10">
-        <v>11000</v>
+        <v>4</v>
       </c>
       <c r="E38" s="10">
-        <v>15000</v>
+        <v>10</v>
       </c>
       <c r="F38" s="10">
-        <v>20000</v>
+        <v>16</v>
       </c>
       <c r="G38" s="10">
-        <v>20000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="10">
-        <v>2</v>
-      </c>
-      <c r="D39" s="10">
-        <v>4</v>
-      </c>
-      <c r="E39" s="10">
-        <v>10</v>
-      </c>
-      <c r="F39" s="10">
-        <v>16</v>
-      </c>
-      <c r="G39" s="10">
-        <v>16</v>
+        <v>171</v>
+      </c>
+      <c r="C39" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" s="10" t="b">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="10" t="b">
-        <v>0</v>
+      <c r="G40" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10" t="s">
-        <v>72</v>
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="E42" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="F42" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>38</v>
-      </c>
       <c r="G42" s="14" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="D43" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="E43" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="F43" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="G43" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="D44" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="E44" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>126</v>
-      </c>
       <c r="F44" s="14" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="F45" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>38</v>
-      </c>
       <c r="G45" s="14" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>133</v>
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9" t="s">
-        <v>72</v>
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15" t="s">
-        <v>72</v>
+        <v>131</v>
+      </c>
+      <c r="C48" s="15">
+        <v>1</v>
+      </c>
+      <c r="D48" s="15">
+        <v>5</v>
+      </c>
+      <c r="E48" s="15">
+        <v>10</v>
+      </c>
+      <c r="F48" s="15">
+        <v>20</v>
+      </c>
+      <c r="G48" s="15">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="C49" s="15">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D49" s="15">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E49" s="15">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F49" s="15">
         <v>20</v>
       </c>
       <c r="G49" s="15">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>57</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" s="15">
-        <v>50</v>
-      </c>
-      <c r="D50" s="15">
-        <v>40</v>
-      </c>
-      <c r="E50" s="15">
-        <v>30</v>
-      </c>
-      <c r="F50" s="15">
-        <v>20</v>
-      </c>
-      <c r="G50" s="15">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C51" s="12" t="b">
         <v>1</v>
@@ -2430,333 +2447,339 @@
         <v>0</v>
       </c>
       <c r="G51" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
-      </c>
-      <c r="C52" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D52" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" s="12" t="b">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>184</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>139</v>
+        <v>179</v>
+      </c>
+      <c r="C53" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
-      </c>
-      <c r="C54" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D54" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G54" s="12" t="b">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="C54" s="12">
+        <v>250</v>
+      </c>
+      <c r="D54" s="12">
+        <v>4</v>
+      </c>
+      <c r="E54" s="12">
+        <v>350</v>
+      </c>
+      <c r="F54" s="12">
+        <v>300</v>
+      </c>
+      <c r="G54" s="12">
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>66</v>
-      </c>
-      <c r="B55" t="s">
-        <v>186</v>
-      </c>
-      <c r="C55" s="12">
-        <v>250</v>
-      </c>
-      <c r="D55" s="12">
-        <v>4</v>
-      </c>
-      <c r="E55" s="12">
-        <v>350</v>
-      </c>
-      <c r="F55" s="12">
-        <v>300</v>
-      </c>
-      <c r="G55" s="12">
-        <v>300</v>
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="F56" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G57" s="8" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>155</v>
+        <v>184</v>
+      </c>
+      <c r="C59" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>72</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C60" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8" t="b">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="F61" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>195</v>
-      </c>
       <c r="G61" s="12" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>197</v>
+        <v>50</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C63" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D63" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="G63" s="12" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="E64" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="F64" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E64" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>205</v>
-      </c>
       <c r="G64" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" s="12" t="s">
+      <c r="E65" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="F65" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F65" s="12" t="s">
-        <v>209</v>
-      </c>
       <c r="G65" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="D66" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="E66" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="F66" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>212</v>
@@ -2764,96 +2787,90 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="D67" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="E67" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="F67" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>219</v>
-      </c>
       <c r="G67" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>220</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="C68" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>225</v>
-      </c>
-      <c r="C69" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D69" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" s="12" t="b">
-        <v>1</v>
+        <v>222</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>228</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>230</v>
+        <v>225</v>
+      </c>
+      <c r="C70" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C71" s="12" t="b">
         <v>1</v>
@@ -2862,55 +2879,55 @@
         <v>0</v>
       </c>
       <c r="G71" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>232</v>
-      </c>
-      <c r="C72" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D72" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72" s="12" t="b">
-        <v>0</v>
+        <v>227</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
+      </c>
+      <c r="C73" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C74" s="12" t="b">
         <v>1</v>
@@ -2924,67 +2941,73 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
-      </c>
-      <c r="C75" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D75" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G75" s="12" t="b">
-        <v>1</v>
+        <v>234</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>244</v>
+        <v>239</v>
+      </c>
+      <c r="C76" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>245</v>
-      </c>
-      <c r="C77" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D77" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G77" s="12" t="b">
-        <v>1</v>
+        <v>242</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>246</v>
@@ -2993,93 +3016,14 @@
         <v>247</v>
       </c>
       <c r="E78" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F78" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F78" s="12" t="s">
-        <v>250</v>
-      </c>
       <c r="G78" s="12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>92</v>
-      </c>
-      <c r="B79" t="s">
-        <v>251</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>93</v>
-      </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>94</v>
-      </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>95</v>
-      </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>96</v>
-      </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>97</v>
-      </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>98</v>
-      </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>99</v>
-      </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>100</v>
-      </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3333,18 +3277,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3367,6 +3311,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBB43C29-2953-4FA1-9CDF-73853D523B4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03E74EDC-EB10-4BFD-841D-D40F0AB415C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="d5eecfe1-67dc-47ad-91d3-ebcc6aa3a458"/>
@@ -3381,12 +3333,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBB43C29-2953-4FA1-9CDF-73853D523B4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Deployment/TeamsQuestionBank.xlsx
+++ b/Deployment/TeamsQuestionBank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swarora\Desktop\Deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757A6A4D-F9D8-4EDA-A3C6-3FEBF1A0114D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48245286-2D00-4644-BF41-43CD5A884DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0033BA41-4B9D-490C-9F50-957A435A7F98}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="258">
   <si>
     <t>Question</t>
   </si>
@@ -823,6 +823,12 @@
   </si>
   <si>
     <t>S.No</t>
+  </si>
+  <si>
+    <t>Can't Say</t>
+  </si>
+  <si>
+    <t>None of the Above</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1333,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,8 +1636,12 @@
       <c r="D13" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="G13" s="10" t="b">
         <v>0</v>
       </c>
@@ -1672,8 +1682,12 @@
       <c r="D15" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="G15" s="10" t="b">
         <v>0</v>
       </c>
@@ -1852,6 +1866,12 @@
       <c r="D23" s="12" t="s">
         <v>67</v>
       </c>
+      <c r="E23" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>257</v>
+      </c>
       <c r="G23" s="12" t="s">
         <v>66</v>
       </c>
@@ -1869,6 +1889,12 @@
       <c r="D24" s="12" t="s">
         <v>67</v>
       </c>
+      <c r="E24" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>257</v>
+      </c>
       <c r="G24" s="12" t="s">
         <v>67</v>
       </c>
@@ -1932,6 +1958,12 @@
       <c r="D27" s="12" t="s">
         <v>67</v>
       </c>
+      <c r="E27" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>257</v>
+      </c>
       <c r="G27" s="12" t="s">
         <v>67</v>
       </c>
@@ -2081,8 +2113,12 @@
       <c r="D34" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>257</v>
+      </c>
       <c r="G34" s="13" t="b">
         <v>0</v>
       </c>
@@ -2192,8 +2228,12 @@
       <c r="D39" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="E39" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="G39" s="10" t="b">
         <v>0</v>
       </c>
@@ -2211,8 +2251,12 @@
       <c r="D40" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="E40" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="G40" s="10" t="s">
         <v>66</v>
       </c>
@@ -2345,8 +2389,12 @@
       <c r="D46" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="E46" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="G46" s="9" t="s">
         <v>66</v>
       </c>
@@ -2364,8 +2412,12 @@
       <c r="D47" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
+      <c r="E47" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="G47" s="15" t="s">
         <v>66</v>
       </c>
@@ -2429,6 +2481,12 @@
       <c r="D50" s="12" t="b">
         <v>0</v>
       </c>
+      <c r="E50" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>257</v>
+      </c>
       <c r="G50" s="12" t="b">
         <v>0</v>
       </c>
@@ -2446,6 +2504,12 @@
       <c r="D51" s="12" t="b">
         <v>0</v>
       </c>
+      <c r="E51" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>257</v>
+      </c>
       <c r="G51" s="12" t="b">
         <v>1</v>
       </c>
@@ -2486,6 +2550,12 @@
       <c r="D53" s="12" t="b">
         <v>0</v>
       </c>
+      <c r="E53" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>257</v>
+      </c>
       <c r="G53" s="12" t="b">
         <v>1</v>
       </c>
@@ -2618,8 +2688,12 @@
       <c r="D59" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
+      <c r="E59" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>257</v>
+      </c>
       <c r="G59" s="8" t="b">
         <v>0</v>
       </c>
@@ -2821,6 +2895,12 @@
       <c r="D68" s="12" t="b">
         <v>0</v>
       </c>
+      <c r="E68" t="s">
+        <v>256</v>
+      </c>
+      <c r="F68" t="s">
+        <v>257</v>
+      </c>
       <c r="G68" s="12" t="b">
         <v>1</v>
       </c>
@@ -2838,10 +2918,10 @@
       <c r="D69" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" t="s">
         <v>223</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" t="s">
         <v>221</v>
       </c>
       <c r="G69" s="12" t="s">
@@ -2861,6 +2941,12 @@
       <c r="D70" s="12" t="b">
         <v>0</v>
       </c>
+      <c r="E70" t="s">
+        <v>256</v>
+      </c>
+      <c r="F70" t="s">
+        <v>257</v>
+      </c>
       <c r="G70" s="12" t="b">
         <v>1</v>
       </c>
@@ -2878,6 +2964,12 @@
       <c r="D71" s="12" t="b">
         <v>0</v>
       </c>
+      <c r="E71" t="s">
+        <v>256</v>
+      </c>
+      <c r="F71" t="s">
+        <v>257</v>
+      </c>
       <c r="G71" s="12" t="b">
         <v>0</v>
       </c>
@@ -2895,10 +2987,10 @@
       <c r="D72" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" t="s">
         <v>230</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="F72" t="s">
         <v>231</v>
       </c>
       <c r="G72" s="12" t="s">
@@ -2918,6 +3010,12 @@
       <c r="D73" s="12" t="b">
         <v>0</v>
       </c>
+      <c r="E73" t="s">
+        <v>256</v>
+      </c>
+      <c r="F73" t="s">
+        <v>257</v>
+      </c>
       <c r="G73" s="12" t="b">
         <v>1</v>
       </c>
@@ -2935,6 +3033,12 @@
       <c r="D74" s="12" t="b">
         <v>0</v>
       </c>
+      <c r="E74" t="s">
+        <v>256</v>
+      </c>
+      <c r="F74" t="s">
+        <v>257</v>
+      </c>
       <c r="G74" s="12" t="b">
         <v>1</v>
       </c>
@@ -2952,10 +3056,10 @@
       <c r="D75" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" t="s">
         <v>236</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F75" t="s">
         <v>237</v>
       </c>
       <c r="G75" s="12" t="s">
@@ -2975,6 +3079,12 @@
       <c r="D76" s="12" t="b">
         <v>0</v>
       </c>
+      <c r="E76" t="s">
+        <v>256</v>
+      </c>
+      <c r="F76" t="s">
+        <v>257</v>
+      </c>
       <c r="G76" s="12" t="b">
         <v>1</v>
       </c>
@@ -2992,10 +3102,10 @@
       <c r="D77" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" t="s">
         <v>243</v>
       </c>
-      <c r="F77" s="12" t="s">
+      <c r="F77" t="s">
         <v>244</v>
       </c>
       <c r="G77" s="12" t="s">
@@ -3015,10 +3125,10 @@
       <c r="D78" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" t="s">
         <v>248</v>
       </c>
-      <c r="F78" s="12" t="s">
+      <c r="F78" t="s">
         <v>249</v>
       </c>
       <c r="G78" s="12" t="s">
@@ -3277,18 +3387,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3311,14 +3421,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBB43C29-2953-4FA1-9CDF-73853D523B4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03E74EDC-EB10-4BFD-841D-D40F0AB415C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="d5eecfe1-67dc-47ad-91d3-ebcc6aa3a458"/>
@@ -3333,4 +3435,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBB43C29-2953-4FA1-9CDF-73853D523B4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Deployment/TeamsQuestionBank.xlsx
+++ b/Deployment/TeamsQuestionBank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swarora\Desktop\Deployment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swarora\QuizApp\Deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48245286-2D00-4644-BF41-43CD5A884DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D488B2-69B8-4E8C-A262-5F498B6FBDCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0033BA41-4B9D-490C-9F50-957A435A7F98}"/>
   </bookViews>
@@ -822,13 +822,13 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>S.No</t>
-  </si>
-  <si>
     <t>Can't Say</t>
   </si>
   <si>
     <t>None of the Above</t>
+  </si>
+  <si>
+    <t>SNo.</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1007,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE074867-A302-45CB-A2F3-6F109B7527C5}" name="Table1" displayName="Table1" ref="A1:G78" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:G78" xr:uid="{41955F9D-CA80-48C2-B8E5-364BCE8B0788}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3C9A1044-704C-47FF-8C54-B922818E1B47}" name="S.No"/>
+    <tableColumn id="1" xr3:uid="{3C9A1044-704C-47FF-8C54-B922818E1B47}" name="SNo."/>
     <tableColumn id="2" xr3:uid="{A9D40C83-9864-4C7F-B838-6567C86F05DF}" name="Question"/>
     <tableColumn id="3" xr3:uid="{EEE6ACE9-DB51-478B-8D6C-3EC6FC3D7046}" name="Option1" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{54AFF299-ED2C-4787-9557-42848FC4209E}" name="Option2" dataDxfId="3"/>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,7 +1349,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1637,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="G13" s="10" t="b">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="G15" s="10" t="b">
         <v>0</v>
@@ -1867,10 +1867,10 @@
         <v>67</v>
       </c>
       <c r="E23" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>66</v>
@@ -1890,10 +1890,10 @@
         <v>67</v>
       </c>
       <c r="E24" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>67</v>
@@ -1959,10 +1959,10 @@
         <v>67</v>
       </c>
       <c r="E27" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>67</v>
@@ -2114,10 +2114,10 @@
         <v>1</v>
       </c>
       <c r="E34" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>256</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>257</v>
       </c>
       <c r="G34" s="13" t="b">
         <v>0</v>
@@ -2229,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="G39" s="10" t="b">
         <v>0</v>
@@ -2252,10 +2252,10 @@
         <v>67</v>
       </c>
       <c r="E40" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>66</v>
@@ -2390,10 +2390,10 @@
         <v>67</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>257</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>66</v>
@@ -2413,10 +2413,10 @@
         <v>67</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>257</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>66</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="G50" s="12" t="b">
         <v>0</v>
@@ -2505,10 +2505,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F51" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="G51" s="12" t="b">
         <v>1</v>
@@ -2551,10 +2551,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F53" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="G53" s="12" t="b">
         <v>1</v>
@@ -2689,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>257</v>
       </c>
       <c r="G59" s="8" t="b">
         <v>0</v>
@@ -2896,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
+        <v>255</v>
+      </c>
+      <c r="F68" t="s">
         <v>256</v>
-      </c>
-      <c r="F68" t="s">
-        <v>257</v>
       </c>
       <c r="G68" s="12" t="b">
         <v>1</v>
@@ -2942,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
+        <v>255</v>
+      </c>
+      <c r="F70" t="s">
         <v>256</v>
-      </c>
-      <c r="F70" t="s">
-        <v>257</v>
       </c>
       <c r="G70" s="12" t="b">
         <v>1</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
+        <v>255</v>
+      </c>
+      <c r="F71" t="s">
         <v>256</v>
-      </c>
-      <c r="F71" t="s">
-        <v>257</v>
       </c>
       <c r="G71" s="12" t="b">
         <v>0</v>
@@ -3011,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
+        <v>255</v>
+      </c>
+      <c r="F73" t="s">
         <v>256</v>
-      </c>
-      <c r="F73" t="s">
-        <v>257</v>
       </c>
       <c r="G73" s="12" t="b">
         <v>1</v>
@@ -3034,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
+        <v>255</v>
+      </c>
+      <c r="F74" t="s">
         <v>256</v>
-      </c>
-      <c r="F74" t="s">
-        <v>257</v>
       </c>
       <c r="G74" s="12" t="b">
         <v>1</v>
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
+        <v>255</v>
+      </c>
+      <c r="F76" t="s">
         <v>256</v>
-      </c>
-      <c r="F76" t="s">
-        <v>257</v>
       </c>
       <c r="G76" s="12" t="b">
         <v>1</v>
@@ -3170,6 +3170,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A00D9453AFA9EC4B9022F8FD60023C27" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7f2cdc1227837d630307acdf483fde50">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e0f4575-6a25-48ed-8a9c-18fd8239b097" xmlns:ns3="d5eecfe1-67dc-47ad-91d3-ebcc6aa3a458" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b471ff19f16803ee6b380916ee2a217a" ns2:_="" ns3:_="">
     <xsd:import namespace="0e0f4575-6a25-48ed-8a9c-18fd8239b097"/>
@@ -3386,12 +3392,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3402,6 +3402,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03E74EDC-EB10-4BFD-841D-D40F0AB415C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="d5eecfe1-67dc-47ad-91d3-ebcc6aa3a458"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="0e0f4575-6a25-48ed-8a9c-18fd8239b097"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61906E0A-D393-4883-B3B1-60864BB5178D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3420,23 +3437,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03E74EDC-EB10-4BFD-841D-D40F0AB415C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="d5eecfe1-67dc-47ad-91d3-ebcc6aa3a458"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="0e0f4575-6a25-48ed-8a9c-18fd8239b097"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBB43C29-2953-4FA1-9CDF-73853D523B4C}">
   <ds:schemaRefs>

--- a/Deployment/TeamsQuestionBank.xlsx
+++ b/Deployment/TeamsQuestionBank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swarora\QuizApp\Deployment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swarora\Desktop\Deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D488B2-69B8-4E8C-A262-5F498B6FBDCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48245286-2D00-4644-BF41-43CD5A884DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0033BA41-4B9D-490C-9F50-957A435A7F98}"/>
   </bookViews>
@@ -822,13 +822,13 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>S.No</t>
+  </si>
+  <si>
     <t>Can't Say</t>
   </si>
   <si>
     <t>None of the Above</t>
-  </si>
-  <si>
-    <t>SNo.</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1007,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE074867-A302-45CB-A2F3-6F109B7527C5}" name="Table1" displayName="Table1" ref="A1:G78" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:G78" xr:uid="{41955F9D-CA80-48C2-B8E5-364BCE8B0788}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3C9A1044-704C-47FF-8C54-B922818E1B47}" name="SNo."/>
+    <tableColumn id="1" xr3:uid="{3C9A1044-704C-47FF-8C54-B922818E1B47}" name="S.No"/>
     <tableColumn id="2" xr3:uid="{A9D40C83-9864-4C7F-B838-6567C86F05DF}" name="Question"/>
     <tableColumn id="3" xr3:uid="{EEE6ACE9-DB51-478B-8D6C-3EC6FC3D7046}" name="Option1" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{54AFF299-ED2C-4787-9557-42848FC4209E}" name="Option2" dataDxfId="3"/>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,7 +1349,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1637,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G13" s="10" t="b">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G15" s="10" t="b">
         <v>0</v>
@@ -1867,10 +1867,10 @@
         <v>67</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>66</v>
@@ -1890,10 +1890,10 @@
         <v>67</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>67</v>
@@ -1959,10 +1959,10 @@
         <v>67</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>67</v>
@@ -2114,10 +2114,10 @@
         <v>1</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G34" s="13" t="b">
         <v>0</v>
@@ -2229,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G39" s="10" t="b">
         <v>0</v>
@@ -2252,10 +2252,10 @@
         <v>67</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>66</v>
@@ -2390,10 +2390,10 @@
         <v>67</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>66</v>
@@ -2413,10 +2413,10 @@
         <v>67</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>66</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G50" s="12" t="b">
         <v>0</v>
@@ -2505,10 +2505,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G51" s="12" t="b">
         <v>1</v>
@@ -2551,10 +2551,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G53" s="12" t="b">
         <v>1</v>
@@ -2689,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G59" s="8" t="b">
         <v>0</v>
@@ -2896,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G68" s="12" t="b">
         <v>1</v>
@@ -2942,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F70" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G70" s="12" t="b">
         <v>1</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F71" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G71" s="12" t="b">
         <v>0</v>
@@ -3011,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G73" s="12" t="b">
         <v>1</v>
@@ -3034,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F74" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G74" s="12" t="b">
         <v>1</v>
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F76" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G76" s="12" t="b">
         <v>1</v>
@@ -3170,12 +3170,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A00D9453AFA9EC4B9022F8FD60023C27" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7f2cdc1227837d630307acdf483fde50">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e0f4575-6a25-48ed-8a9c-18fd8239b097" xmlns:ns3="d5eecfe1-67dc-47ad-91d3-ebcc6aa3a458" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b471ff19f16803ee6b380916ee2a217a" ns2:_="" ns3:_="">
     <xsd:import namespace="0e0f4575-6a25-48ed-8a9c-18fd8239b097"/>
@@ -3392,6 +3386,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3402,23 +3402,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03E74EDC-EB10-4BFD-841D-D40F0AB415C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="d5eecfe1-67dc-47ad-91d3-ebcc6aa3a458"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="0e0f4575-6a25-48ed-8a9c-18fd8239b097"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61906E0A-D393-4883-B3B1-60864BB5178D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3437,6 +3420,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03E74EDC-EB10-4BFD-841D-D40F0AB415C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="d5eecfe1-67dc-47ad-91d3-ebcc6aa3a458"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="0e0f4575-6a25-48ed-8a9c-18fd8239b097"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBB43C29-2953-4FA1-9CDF-73853D523B4C}">
   <ds:schemaRefs>
